--- a/data/brasil/serie-b/2021.xlsx
+++ b/data/brasil/serie-b/2021.xlsx
@@ -687,10 +687,22 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>19105</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6376</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>28/11/2021</t>
@@ -745,10 +757,22 @@
       <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mendonca J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>14450</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11207</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>28/11/2021</t>
@@ -943,9 +967,19 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>13792</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -992,7 +1026,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1071,10 +1105,22 @@
       <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Schwengber D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>17728</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1970</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>26/11/2021</t>
@@ -1129,9 +1175,19 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P. Coelho (Bra)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>61927</v>
+      </c>
       <c r="K11" t="n">
         <v>60700</v>
       </c>
@@ -1259,9 +1315,19 @@
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Marcelo de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>19105</v>
+      </c>
       <c r="K13" t="n">
         <v>5283</v>
       </c>
@@ -1389,10 +1455,22 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mendonca J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1030</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>21/11/2021</t>
@@ -1568,7 +1646,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1797,8 +1875,16 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Chavez S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
       <c r="J21" t="n">
         <v>40149</v>
       </c>
@@ -1859,9 +1945,19 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>13792</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1917,9 +2013,19 @@
       <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Guimaraes I. (Bra)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>22856</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1956,7 +2062,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1975,10 +2081,22 @@
       <c r="G24" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>P. Vollkopf (Bra)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>11788</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3854</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>15/11/2021</t>
@@ -2033,9 +2151,19 @@
       <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Dewson F. da Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>46931</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -2159,9 +2287,19 @@
       <c r="G27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Ricardo Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>36056</v>
+      </c>
       <c r="K27" t="n">
         <v>2573</v>
       </c>
@@ -2289,10 +2427,22 @@
       <c r="G29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>40502</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27531</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>14/11/2021</t>
@@ -2347,8 +2497,16 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
       <c r="J30" t="n">
         <v>29130</v>
       </c>
@@ -2409,10 +2567,22 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>19105</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5600</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>12/11/2021</t>
@@ -2467,7 +2637,11 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Moraes A. (Bra)</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>Moisés Lucarelli (Campinas)</t>
@@ -2524,7 +2698,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2533,9 +2707,19 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>40149</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -2661,10 +2845,22 @@
       <c r="G35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>P. C. Zanovelli (Bra)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>14450</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6618</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>10/11/2021</t>
@@ -2719,9 +2915,19 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>21880</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -2917,10 +3123,22 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>T. Scarascati (Bra)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>15575</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3862</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>09/11/2021</t>
@@ -3183,9 +3401,19 @@
       <c r="G43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Nascimento T. (Bra)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>40149</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -3222,7 +3450,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3519,10 +3747,22 @@
       <c r="G48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>22856</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2273</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>06/11/2021</t>
@@ -3577,10 +3817,22 @@
       <c r="G49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Vargas A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>36056</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3750</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>05/11/2021</t>
@@ -3635,9 +3887,19 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>F. Fernandes de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>17800</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -3693,9 +3955,19 @@
       <c r="G51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>19105</v>
+      </c>
       <c r="K51" t="n">
         <v>4732</v>
       </c>
@@ -4031,10 +4303,22 @@
       <c r="G56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>14450</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3310</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>02/11/2021</t>
@@ -4089,10 +4373,22 @@
       <c r="G57" t="n">
         <v>3</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>F. Fernandes de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>998</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>02/11/2021</t>
@@ -4348,7 +4644,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -4357,9 +4653,19 @@
       <c r="G61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Dewson F. da Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>61927</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -4485,10 +4791,20 @@
       <c r="G63" t="n">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Serafim D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Ponte Preta Unidade Paineiras (Campinas)</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>3396</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>30/10/2021</t>
@@ -4543,10 +4859,22 @@
       <c r="G64" t="n">
         <v>3</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>21880</v>
+      </c>
+      <c r="K64" t="n">
+        <v>9881</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>29/10/2021</t>
@@ -4671,10 +4999,22 @@
       <c r="G66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K66" t="n">
+        <v>484</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>28/10/2021</t>
@@ -4799,10 +5139,22 @@
       <c r="G68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Holanda L. (Bra)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>40149</v>
+      </c>
+      <c r="K68" t="n">
+        <v>850</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>28/10/2021</t>
@@ -4857,10 +5209,22 @@
       <c r="G69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>14450</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3594</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>26/10/2021</t>
@@ -4915,10 +5279,14 @@
       <c r="G70" t="n">
         <v>1</v>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Maceió)</t>
+          <t>Estádio Rei Pelé (Maceió)</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4972,7 +5340,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -5051,11 +5419,7 @@
       <c r="G72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Paulo Roberto (Bra)</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
           <t>Estádio Eládio de Barros Carvalho (Recife)</t>
@@ -5187,10 +5551,22 @@
       <c r="G74" t="n">
         <v>4</v>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Dewson F. da Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>19105</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5002</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>23/10/2021</t>
@@ -5245,10 +5621,22 @@
       <c r="G75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Heber R. Lopes (Bra)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>34535</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2054</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>23/10/2021</t>
@@ -5371,9 +5759,19 @@
       <c r="G77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Traci R. (Bra)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>29130</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
@@ -5497,10 +5895,22 @@
       <c r="G79" t="n">
         <v>0</v>
       </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>40502</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2448</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>19/10/2021</t>
@@ -5606,7 +6016,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5831,9 +6241,19 @@
       <c r="G84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>21880</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -5889,9 +6309,19 @@
       <c r="G85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>17728</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -5938,7 +6368,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -5947,9 +6377,19 @@
       <c r="G86" t="n">
         <v>2</v>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>T. Scarascati (Bra)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>10000</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
@@ -6005,10 +6445,22 @@
       <c r="G87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>14450</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1712</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>15/10/2021</t>
@@ -6269,9 +6721,19 @@
       <c r="G91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>L. Silveira (Bra)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>40149</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -6327,10 +6789,22 @@
       <c r="G92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>P. C. Zanovelli (Bra)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>19105</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1339</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>09/10/2021</t>
@@ -6385,8 +6859,16 @@
       <c r="G93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Vieira C. (Bra)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
       <c r="J93" t="n">
         <v>40149</v>
       </c>
@@ -6513,10 +6995,22 @@
       <c r="G95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>L. Simão (Bra)</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>29130</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1307</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>09/10/2021</t>
@@ -6688,7 +7182,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6710,7 +7204,9 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1804</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>08/10/2021</t>
@@ -6765,10 +7261,22 @@
       <c r="G99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Guimaraes I. (Bra)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>183</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>06/10/2021</t>
@@ -6823,10 +7331,22 @@
       <c r="G100" t="n">
         <v>2</v>
       </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Ricardo Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>22856</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2724</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>05/10/2021</t>
@@ -6951,8 +7471,16 @@
       <c r="G102" t="n">
         <v>0</v>
       </c>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Alves Z. (Bra)</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
       <c r="J102" t="n">
         <v>13792</v>
       </c>
@@ -7013,10 +7541,22 @@
       <c r="G103" t="n">
         <v>1</v>
       </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>R. Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>36056</v>
+      </c>
+      <c r="K103" t="n">
+        <v>83</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>03/10/2021</t>
@@ -7071,10 +7611,22 @@
       <c r="G104" t="n">
         <v>2</v>
       </c>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>15575</v>
+      </c>
+      <c r="K104" t="n">
+        <v>4665</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>03/10/2021</t>
@@ -7190,7 +7742,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -7267,9 +7819,19 @@
       <c r="G107" t="n">
         <v>2</v>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>46931</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
@@ -7393,10 +7955,22 @@
       <c r="G109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>R. Raposo (Bra)</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K109" t="n">
+        <v>373</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -7451,10 +8025,22 @@
       <c r="G110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Wagner do Nascimento (Bra)</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>14450</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1080</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>02/10/2021</t>
@@ -7577,9 +8163,19 @@
       <c r="G112" t="n">
         <v>1</v>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>R. Martins de Sá (Bra)</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>40149</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -7635,9 +8231,19 @@
       <c r="G113" t="n">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>P. Vollkopf (Bra)</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>19105</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
@@ -7761,9 +8367,19 @@
       <c r="G115" t="n">
         <v>2</v>
       </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>J. Antero (Bra)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>10000</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -7887,9 +8503,19 @@
       <c r="G117" t="n">
         <v>1</v>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Ricardo Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>40502</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -7926,7 +8552,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8285,9 +8911,19 @@
       <c r="G123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>P. Alves (Bra)</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>17728</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
@@ -8343,9 +8979,19 @@
       <c r="G124" t="n">
         <v>2</v>
       </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>61927</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
@@ -8401,9 +9047,19 @@
       <c r="G125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Moraes A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>40502</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -8459,9 +9115,19 @@
       <c r="G126" t="n">
         <v>2</v>
       </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>André de Freitas (Bra)</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>19105</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
@@ -8517,9 +9183,19 @@
       <c r="G127" t="n">
         <v>0</v>
       </c>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>15575</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
@@ -8643,9 +9319,19 @@
       <c r="G129" t="n">
         <v>1</v>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>5000</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
@@ -8692,7 +9378,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -8701,9 +9387,19 @@
       <c r="G130" t="n">
         <v>2</v>
       </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Marcelo de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>14450</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
@@ -8759,9 +9455,19 @@
       <c r="G131" t="n">
         <v>0</v>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Holanda L. (Bra)</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>13792</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
@@ -8817,9 +9523,19 @@
       <c r="G132" t="n">
         <v>0</v>
       </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Heber R. Lopes (Bra)</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>19105</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
@@ -8943,9 +9659,19 @@
       <c r="G134" t="n">
         <v>0</v>
       </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Serafim D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>34535</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
@@ -9050,7 +9776,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -9069,7 +9795,11 @@
       <c r="G136" t="n">
         <v>0</v>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Cidral D. (Bra)</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr">
         <is>
           <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
@@ -9405,9 +10135,19 @@
       <c r="G141" t="n">
         <v>1</v>
       </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>A.Castro (Por)</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>21880</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -9463,9 +10203,19 @@
       <c r="G142" t="n">
         <v>1</v>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>14450</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -9521,9 +10271,19 @@
       <c r="G143" t="n">
         <v>1</v>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>46931</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -9647,9 +10407,19 @@
       <c r="G145" t="n">
         <v>0</v>
       </c>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Marcelo de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>17728</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -9705,9 +10475,19 @@
       <c r="G146" t="n">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>15575</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -9754,7 +10534,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -9763,9 +10543,19 @@
       <c r="G147" t="n">
         <v>0</v>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Schwengber D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>40502</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -10025,9 +10815,19 @@
       <c r="G151" t="n">
         <v>1</v>
       </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Rodrigo D'Alonso (Bra)</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>61927</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -10151,9 +10951,19 @@
       <c r="G153" t="n">
         <v>0</v>
       </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>P. Vollkopf (Bra)</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>46931</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -10209,9 +11019,19 @@
       <c r="G154" t="n">
         <v>0</v>
       </c>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>V. Gomes (Bra)</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>40149</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -10316,7 +11136,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10335,9 +11155,19 @@
       <c r="G156" t="n">
         <v>0</v>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>R. Raposo (Bra)</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>11788</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -10393,9 +11223,19 @@
       <c r="G157" t="n">
         <v>2</v>
       </c>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>F. Fernandes de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>34535</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -10451,7 +11291,11 @@
       <c r="G158" t="n">
         <v>1</v>
       </c>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Lima J. P. (Bra)</t>
+        </is>
+      </c>
       <c r="I158" t="inlineStr">
         <is>
           <t>Estádio da Serrinha (Goiânia)</t>
@@ -10515,9 +11359,19 @@
       <c r="G159" t="n">
         <v>0</v>
       </c>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>R. J. Pereira de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>40502</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -10573,9 +11427,19 @@
       <c r="G160" t="n">
         <v>0</v>
       </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>29130</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -10631,9 +11495,19 @@
       <c r="G161" t="n">
         <v>1</v>
       </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>10000</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -10893,9 +11767,19 @@
       <c r="G165" t="n">
         <v>1</v>
       </c>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Schwengber D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>10632</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -10942,7 +11826,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -11019,9 +11903,19 @@
       <c r="G167" t="n">
         <v>0</v>
       </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Marcelo de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>5000</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -11077,9 +11971,19 @@
       <c r="G168" t="n">
         <v>2</v>
       </c>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Salmazio P. (Bra)</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>17728</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -11135,7 +12039,11 @@
       <c r="G169" t="n">
         <v>1</v>
       </c>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>São Januário (Rio de Janeiro)</t>
@@ -11335,9 +12243,19 @@
       <c r="G172" t="n">
         <v>0</v>
       </c>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>B. Arleu (Bra)</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>19105</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -11393,9 +12311,19 @@
       <c r="G173" t="n">
         <v>1</v>
       </c>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Mendonca J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>22856</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
@@ -11519,9 +12447,19 @@
       <c r="G175" t="n">
         <v>0</v>
       </c>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Nascimento T. (Bra)</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>40149</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
@@ -11577,9 +12515,19 @@
       <c r="G176" t="n">
         <v>0</v>
       </c>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>F. A. Santos Sá Júnior (Bra)</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>5000</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
@@ -11635,9 +12583,19 @@
       <c r="G177" t="n">
         <v>1</v>
       </c>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Rodrigo D'Alonso (Bra)</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>40502</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
@@ -11761,9 +12719,19 @@
       <c r="G179" t="n">
         <v>2</v>
       </c>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Ferreira M. (Bra)</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>15575</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
@@ -11800,7 +12768,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -11819,9 +12787,19 @@
       <c r="G180" t="n">
         <v>0</v>
       </c>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>D. Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>11788</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -11877,9 +12855,19 @@
       <c r="G181" t="n">
         <v>1</v>
       </c>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>19105</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -11935,9 +12923,19 @@
       <c r="G182" t="n">
         <v>0</v>
       </c>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>29130</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -12061,9 +13059,19 @@
       <c r="G184" t="n">
         <v>0</v>
       </c>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>36056</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -12119,9 +13127,19 @@
       <c r="G185" t="n">
         <v>2</v>
       </c>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Ricardo Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>14450</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -12168,7 +13186,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -12177,9 +13195,19 @@
       <c r="G186" t="n">
         <v>2</v>
       </c>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Serafim D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>46931</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -12235,9 +13263,19 @@
       <c r="G187" t="n">
         <v>2</v>
       </c>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>T. Scarascati (Bra)</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>13792</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
@@ -12429,8 +13467,16 @@
       <c r="G190" t="n">
         <v>0</v>
       </c>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>R. Abatti Abel (Bra)</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
       <c r="J190" t="n">
         <v>61927</v>
       </c>
@@ -12489,9 +13535,19 @@
       <c r="G191" t="n">
         <v>2</v>
       </c>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Luiz Flávio (Bra)</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>17800</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -12683,9 +13739,19 @@
       <c r="G194" t="n">
         <v>0</v>
       </c>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Vargas A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>19105</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -12741,9 +13807,19 @@
       <c r="G195" t="n">
         <v>2</v>
       </c>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Chavez S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>21880</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -12799,9 +13875,19 @@
       <c r="G196" t="n">
         <v>1</v>
       </c>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Marielson Alves Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>29130</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
@@ -12838,7 +13924,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -12857,7 +13943,11 @@
       <c r="G197" t="n">
         <v>0</v>
       </c>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>R. Lima (Bra)</t>
+        </is>
+      </c>
       <c r="I197" t="inlineStr">
         <is>
           <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
@@ -13057,9 +14147,19 @@
       <c r="G200" t="n">
         <v>2</v>
       </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>R. J. Pereira de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>15575</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
@@ -13251,9 +14351,19 @@
       <c r="G203" t="n">
         <v>0</v>
       </c>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>T. Scarascati (Bra)</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>46931</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
@@ -13309,9 +14419,19 @@
       <c r="G204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>34535</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
@@ -13358,7 +14478,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -13367,9 +14487,19 @@
       <c r="G205" t="n">
         <v>0</v>
       </c>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>E. Alves Batista (Bra)</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>36056</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
@@ -13425,9 +14555,19 @@
       <c r="G206" t="n">
         <v>0</v>
       </c>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>17800</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
@@ -13551,9 +14691,19 @@
       <c r="G208" t="n">
         <v>0</v>
       </c>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Wagner do Nascimento (Bra)</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>19105</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
@@ -13609,9 +14759,19 @@
       <c r="G209" t="n">
         <v>2</v>
       </c>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>W. Alves (Bra)</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>17728</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
@@ -13667,9 +14827,19 @@
       <c r="G210" t="n">
         <v>1</v>
       </c>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo (Bra)</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>13792</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
@@ -13793,9 +14963,19 @@
       <c r="G212" t="n">
         <v>0</v>
       </c>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>D. Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>10632</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
@@ -13987,8 +15167,16 @@
       <c r="G215" t="n">
         <v>2</v>
       </c>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Sampaio S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
       <c r="J215" t="n">
         <v>61927</v>
       </c>
@@ -14047,7 +15235,11 @@
       <c r="G216" t="n">
         <v>1</v>
       </c>
-      <c r="H216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Dewson F. da Silva (Bra)</t>
+        </is>
+      </c>
       <c r="I216" t="inlineStr">
         <is>
           <t>Moisés Lucarelli (Campinas)</t>
@@ -14238,7 +15430,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -14451,9 +15643,19 @@
       <c r="G222" t="n">
         <v>0</v>
       </c>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>R. Raposo (Bra)</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>46931</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
@@ -14509,9 +15711,19 @@
       <c r="G223" t="n">
         <v>2</v>
       </c>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>R. J. Pereira de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>36056</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
@@ -14548,7 +15760,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14567,9 +15779,19 @@
       <c r="G224" t="n">
         <v>2</v>
       </c>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Chavez S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>11788</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
@@ -14625,9 +15847,19 @@
       <c r="G225" t="n">
         <v>1</v>
       </c>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Leandro Vuaden (Bra)</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>34535</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
@@ -14683,9 +15915,19 @@
       <c r="G226" t="n">
         <v>0</v>
       </c>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Ricardo Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>19105</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
@@ -14809,9 +16051,19 @@
       <c r="G228" t="n">
         <v>2</v>
       </c>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>J. Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>5000</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
@@ -14867,8 +16119,16 @@
       <c r="G229" t="n">
         <v>1</v>
       </c>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>V. Gomes (Bra)</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
       <c r="J229" t="n">
         <v>40502</v>
       </c>
@@ -14927,9 +16187,19 @@
       <c r="G230" t="n">
         <v>0</v>
       </c>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Mendonca J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>29130</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -15257,9 +16527,19 @@
       <c r="G235" t="n">
         <v>0</v>
       </c>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Heber R. Lopes (Bra)</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>46931</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -15383,9 +16663,19 @@
       <c r="G237" t="n">
         <v>2</v>
       </c>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>L. Torezin (Bra)</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>10000</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -15441,9 +16731,19 @@
       <c r="G238" t="n">
         <v>0</v>
       </c>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Guimaraes I. (Bra)</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>34535</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -15490,7 +16790,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -15499,9 +16799,19 @@
       <c r="G239" t="n">
         <v>4</v>
       </c>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>V. Gomes (Bra)</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>29130</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -15761,9 +17071,19 @@
       <c r="G243" t="n">
         <v>0</v>
       </c>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>de Almeida Andrade E. R. (Bra)</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>17800</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -15955,9 +17275,19 @@
       <c r="G246" t="n">
         <v>3</v>
       </c>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>40149</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -16014,8 +17344,14 @@
         <v>0</v>
       </c>
       <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>10632</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -16071,9 +17407,19 @@
       <c r="G248" t="n">
         <v>1</v>
       </c>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>André de Freitas (Bra)</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>19105</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -16129,9 +17475,19 @@
       <c r="G249" t="n">
         <v>1</v>
       </c>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Serafim D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>21880</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -16304,7 +17660,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -16323,9 +17679,19 @@
       <c r="G252" t="n">
         <v>0</v>
       </c>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Vargas A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>11788</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -16449,9 +17815,19 @@
       <c r="G254" t="n">
         <v>0</v>
       </c>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Marcelo de Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>36056</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
@@ -16507,9 +17883,19 @@
       <c r="G255" t="n">
         <v>0</v>
       </c>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Emerson Ferreira (Bra)</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>17800</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
@@ -16633,9 +18019,19 @@
       <c r="G257" t="n">
         <v>2</v>
       </c>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Rodrigo D'Alonso (Bra)</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>19105</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
@@ -16691,9 +18087,19 @@
       <c r="G258" t="n">
         <v>1</v>
       </c>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Chavez S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>22856</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -16730,7 +18136,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -16817,9 +18223,19 @@
       <c r="G260" t="n">
         <v>0</v>
       </c>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Gilberto Júnior (Bra)</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>34535</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
@@ -16875,9 +18291,19 @@
       <c r="G261" t="n">
         <v>2</v>
       </c>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>I. J. Benevenuto (Bra)</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>46931</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -16933,9 +18359,19 @@
       <c r="G262" t="n">
         <v>0</v>
       </c>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Carvalhaes R. (Bra)</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>29130</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -17059,9 +18495,19 @@
       <c r="G264" t="n">
         <v>0</v>
       </c>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Bins D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>13792</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -17108,7 +18554,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -17321,9 +18767,19 @@
       <c r="G268" t="n">
         <v>2</v>
       </c>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Cidral D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>10632</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
@@ -17379,9 +18835,19 @@
       <c r="G269" t="n">
         <v>2</v>
       </c>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Laranjeira J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>17728</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
@@ -17437,9 +18903,19 @@
       <c r="G270" t="n">
         <v>3</v>
       </c>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>61927</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
@@ -17701,7 +19177,11 @@
       <c r="G274" t="n">
         <v>4</v>
       </c>
-      <c r="H274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Heber R. Lopes (Bra)</t>
+        </is>
+      </c>
       <c r="I274" t="inlineStr">
         <is>
           <t>Batistão (Aracaju)</t>
@@ -17765,9 +19245,19 @@
       <c r="G275" t="n">
         <v>1</v>
       </c>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>D. Lopez (Bra)</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>13792</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
@@ -17891,9 +19381,19 @@
       <c r="G277" t="n">
         <v>1</v>
       </c>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Castro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>40502</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
@@ -17949,9 +19449,19 @@
       <c r="G278" t="n">
         <v>2</v>
       </c>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo (Bra)</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>36056</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
@@ -18075,9 +19585,19 @@
       <c r="G280" t="n">
         <v>1</v>
       </c>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>R. Martins de Sá (Bra)</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>17800</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
@@ -18182,7 +19702,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -18201,9 +19721,19 @@
       <c r="G282" t="n">
         <v>0</v>
       </c>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Alves Z. (Bra)</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J282" t="n">
+        <v>11788</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
@@ -18259,9 +19789,19 @@
       <c r="G283" t="n">
         <v>1</v>
       </c>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>J. Antero (Bra)</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>22856</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -18453,9 +19993,19 @@
       <c r="G286" t="n">
         <v>3</v>
       </c>
-      <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Rodolpho (Bra)</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J286" t="n">
+        <v>46931</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
@@ -18579,9 +20129,19 @@
       <c r="G288" t="n">
         <v>1</v>
       </c>
-      <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Guimaraes I. (Bra)</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>14450</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -18764,7 +20324,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -18843,7 +20403,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Bra)</t>
+          <t>Mendonca J. (Bra)</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -18909,9 +20469,19 @@
       <c r="G293" t="n">
         <v>0</v>
       </c>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>de Andrade D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>61927</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -18967,9 +20537,19 @@
       <c r="G294" t="n">
         <v>0</v>
       </c>
-      <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Nascimento T. (Bra)</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Moisés Lucarelli (Campinas)</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>17728</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -19074,7 +20654,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -19093,9 +20673,19 @@
       <c r="G296" t="n">
         <v>0</v>
       </c>
-      <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>L. Silveira (Bra)</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J296" t="n">
+        <v>11788</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -19151,8 +20741,16 @@
       <c r="G297" t="n">
         <v>1</v>
       </c>
-      <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Ferreira M. (Bra)</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
       <c r="J297" t="n">
         <v>34535</v>
       </c>
@@ -19347,9 +20945,19 @@
       <c r="G300" t="n">
         <v>0</v>
       </c>
-      <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>R. G. Gonçalves Batista (Bra)</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>40149</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
@@ -19405,9 +21013,19 @@
       <c r="G301" t="n">
         <v>1</v>
       </c>
-      <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Chavez S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>19105</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -19463,9 +21081,19 @@
       <c r="G302" t="n">
         <v>0</v>
       </c>
-      <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>R. Raposo (Bra)</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J302" t="n">
+        <v>21880</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -19715,9 +21343,19 @@
       <c r="G306" t="n">
         <v>3</v>
       </c>
-      <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>R. Martins de Sá (Bra)</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>61927</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -19841,9 +21479,19 @@
       <c r="G308" t="n">
         <v>3</v>
       </c>
-      <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Guimaraes I. (Bra)</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J308" t="n">
+        <v>36056</v>
+      </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -19899,9 +21547,19 @@
       <c r="G309" t="n">
         <v>0</v>
       </c>
-      <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>W. Alves (Bra)</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>5000</v>
+      </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -20025,9 +21683,19 @@
       <c r="G311" t="n">
         <v>1</v>
       </c>
-      <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Alves Z. (Bra)</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>19105</v>
+      </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -20151,9 +21819,19 @@
       <c r="G313" t="n">
         <v>1</v>
       </c>
-      <c r="H313" t="inlineStr"/>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Laranjeira J. (Bra)</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J313" t="n">
+        <v>15575</v>
+      </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -20200,7 +21878,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -20209,9 +21887,19 @@
       <c r="G314" t="n">
         <v>2</v>
       </c>
-      <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>J. Antero (Bra)</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>10632</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -20335,9 +22023,19 @@
       <c r="G316" t="n">
         <v>1</v>
       </c>
-      <c r="H316" t="inlineStr"/>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>R. Raposo (Bra)</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>19105</v>
+      </c>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -20461,9 +22159,19 @@
       <c r="G318" t="n">
         <v>2</v>
       </c>
-      <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Carneiro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>34535</v>
+      </c>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -20519,19 +22227,9 @@
       <c r="G319" t="n">
         <v>0</v>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>Lima J. P. (Bra)</t>
-        </is>
-      </c>
-      <c r="I319" t="inlineStr">
-        <is>
-          <t>Estádio Governador João Castelo (São Luís)</t>
-        </is>
-      </c>
-      <c r="J319" t="n">
-        <v>40149</v>
-      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -20568,7 +22266,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -20655,9 +22353,19 @@
       <c r="G321" t="n">
         <v>1</v>
       </c>
-      <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Estádio Bento Freitas (Pelotas)</t>
+        </is>
+      </c>
+      <c r="J321" t="n">
+        <v>10000</v>
+      </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -20713,9 +22421,19 @@
       <c r="G322" t="n">
         <v>2</v>
       </c>
-      <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>M. A. A. Fazekas Pereira (Bra)</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>29130</v>
+      </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -20839,9 +22557,19 @@
       <c r="G324" t="n">
         <v>0</v>
       </c>
-      <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>D. Costa (Bra)</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J324" t="n">
+        <v>17800</v>
+      </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -20897,9 +22625,19 @@
       <c r="G325" t="n">
         <v>1</v>
       </c>
-      <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo (Bra)</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J325" t="n">
+        <v>61927</v>
+      </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -21023,9 +22761,19 @@
       <c r="G327" t="n">
         <v>0</v>
       </c>
-      <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>D. Marques (Bra)</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>40502</v>
+      </c>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -21217,9 +22965,19 @@
       <c r="G330" t="n">
         <v>0</v>
       </c>
-      <c r="H330" t="inlineStr"/>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Alves Z. (Bra)</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J330" t="n">
+        <v>14450</v>
+      </c>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -21343,9 +23101,19 @@
       <c r="G332" t="n">
         <v>0</v>
       </c>
-      <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>F. A. Santos Sá Júnior (Bra)</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Augusto Bauer (Brusque)</t>
+        </is>
+      </c>
+      <c r="J332" t="n">
+        <v>5000</v>
+      </c>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -21392,7 +23160,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -21401,9 +23169,19 @@
       <c r="G333" t="n">
         <v>0</v>
       </c>
-      <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>da Silva Castro D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J333" t="n">
+        <v>15575</v>
+      </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -21459,9 +23237,19 @@
       <c r="G334" t="n">
         <v>0</v>
       </c>
-      <c r="H334" t="inlineStr"/>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>André Rocha (Bra)</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J334" t="n">
+        <v>19105</v>
+      </c>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -21517,9 +23305,19 @@
       <c r="G335" t="n">
         <v>1</v>
       </c>
-      <c r="H335" t="inlineStr"/>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>W. Alves (Bra)</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Estádio Eládio de Barros Carvalho (Recife)</t>
+        </is>
+      </c>
+      <c r="J335" t="n">
+        <v>22856</v>
+      </c>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -21575,9 +23373,19 @@
       <c r="G336" t="n">
         <v>1</v>
       </c>
-      <c r="H336" t="inlineStr"/>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>A. Milczvski (Bra)</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J336" t="n">
+        <v>40149</v>
+      </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -21614,7 +23422,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -21633,9 +23441,19 @@
       <c r="G337" t="n">
         <v>1</v>
       </c>
-      <c r="H337" t="inlineStr"/>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Guimaraes I. (Bra)</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J337" t="n">
+        <v>11788</v>
+      </c>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -21691,9 +23509,19 @@
       <c r="G338" t="n">
         <v>1</v>
       </c>
-      <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>P. Vollkopf (Bra)</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>10632</v>
+      </c>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -21817,9 +23645,19 @@
       <c r="G340" t="n">
         <v>0</v>
       </c>
-      <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>R. Abatti Abel (Bra)</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>29130</v>
+      </c>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -21875,7 +23713,11 @@
       <c r="G341" t="n">
         <v>0</v>
       </c>
-      <c r="H341" t="inlineStr"/>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Alisson (Bra)</t>
+        </is>
+      </c>
       <c r="I341" t="inlineStr">
         <is>
           <t>São Januário (Rio de Janeiro)</t>
@@ -22007,9 +23849,19 @@
       <c r="G343" t="n">
         <v>2</v>
       </c>
-      <c r="H343" t="inlineStr"/>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Chavez S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Estádio do Café (Londrina)</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>36056</v>
+      </c>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -22133,9 +23985,19 @@
       <c r="G345" t="n">
         <v>2</v>
       </c>
-      <c r="H345" t="inlineStr"/>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Ferreira M. (Bra)</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>21880</v>
+      </c>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -22191,9 +24053,19 @@
       <c r="G346" t="n">
         <v>0</v>
       </c>
-      <c r="H346" t="inlineStr"/>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Carneiro A. (Bra)</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Estádio Germano Krüger (Ponta Grossa)</t>
+        </is>
+      </c>
+      <c r="J346" t="n">
+        <v>10632</v>
+      </c>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -22249,9 +24121,19 @@
       <c r="G347" t="n">
         <v>0</v>
       </c>
-      <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Paludo F. (Bra)</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J347" t="n">
+        <v>13792</v>
+      </c>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -22307,9 +24189,19 @@
       <c r="G348" t="n">
         <v>1</v>
       </c>
-      <c r="H348" t="inlineStr"/>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>D. Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J348" t="n">
+        <v>15575</v>
+      </c>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -22365,9 +24257,19 @@
       <c r="G349" t="n">
         <v>0</v>
       </c>
-      <c r="H349" t="inlineStr"/>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>R. Raposo (Bra)</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Estádio da Serrinha (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J349" t="n">
+        <v>14450</v>
+      </c>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -22423,9 +24325,19 @@
       <c r="G350" t="n">
         <v>1</v>
       </c>
-      <c r="H350" t="inlineStr"/>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>L. Silveira (Bra)</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>19105</v>
+      </c>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -22472,7 +24384,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -22549,9 +24461,19 @@
       <c r="G352" t="n">
         <v>1</v>
       </c>
-      <c r="H352" t="inlineStr"/>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Cidral D. (Bra)</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>40502</v>
+      </c>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -22675,9 +24597,19 @@
       <c r="G354" t="n">
         <v>2</v>
       </c>
-      <c r="H354" t="inlineStr"/>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>L. Torezin (Bra)</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>17800</v>
+      </c>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -22801,9 +24733,19 @@
       <c r="G356" t="n">
         <v>1</v>
       </c>
-      <c r="H356" t="inlineStr"/>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Vinícius Furlan (Bra)</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J356" t="n">
+        <v>61927</v>
+      </c>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -22908,7 +24850,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -22927,9 +24869,19 @@
       <c r="G358" t="n">
         <v>0</v>
       </c>
-      <c r="H358" t="inlineStr"/>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>F. A. Santos Sá Júnior (Bra)</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>11788</v>
+      </c>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -22985,9 +24937,19 @@
       <c r="G359" t="n">
         <v>2</v>
       </c>
-      <c r="H359" t="inlineStr"/>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Guimaraes I. (Bra)</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>19105</v>
+      </c>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -23111,9 +25073,19 @@
       <c r="G361" t="n">
         <v>0</v>
       </c>
-      <c r="H361" t="inlineStr"/>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>R. da Fonseca Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Estádio Governador João Castelo (São Luís)</t>
+        </is>
+      </c>
+      <c r="J361" t="n">
+        <v>40149</v>
+      </c>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -23169,9 +25141,19 @@
       <c r="G362" t="n">
         <v>1</v>
       </c>
-      <c r="H362" t="inlineStr"/>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Zanon L. (Bra)</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Barradão (Salvador)</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>34535</v>
+      </c>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -23218,7 +25200,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="F363" t="n">
@@ -23227,9 +25209,19 @@
       <c r="G363" t="n">
         <v>1</v>
       </c>
-      <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Chavez S. (Bra)</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Ressacada (Florianópolis)</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>17800</v>
+      </c>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -23285,7 +25277,11 @@
       <c r="G364" t="n">
         <v>4</v>
       </c>
-      <c r="H364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>D. Marques (Bra)</t>
+        </is>
+      </c>
       <c r="I364" t="inlineStr">
         <is>
           <t>Mineirão (Belo Horizonte)</t>
@@ -23417,9 +25413,19 @@
       <c r="G366" t="n">
         <v>0</v>
       </c>
-      <c r="H366" t="inlineStr"/>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Dewson F. da Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico Nilton Santos (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>46931</v>
+      </c>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -23475,9 +25481,19 @@
       <c r="G367" t="n">
         <v>0</v>
       </c>
-      <c r="H367" t="inlineStr"/>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>R. G. Gonçalves Batista (Bra)</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Estádio Evandro Almeida (Belem)</t>
+        </is>
+      </c>
+      <c r="J367" t="n">
+        <v>13792</v>
+      </c>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -23533,9 +25549,19 @@
       <c r="G368" t="n">
         <v>0</v>
       </c>
-      <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>D. Silva (Bra)</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>19105</v>
+      </c>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -23717,9 +25743,19 @@
       <c r="G371" t="n">
         <v>5</v>
       </c>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>R. Raposo (Bra)</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Estádio Couto Pereira (Curitiba)</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>40502</v>
+      </c>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -23979,9 +26015,19 @@
       <c r="G375" t="n">
         <v>1</v>
       </c>
-      <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>André Rocha (Bra)</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Batistão (Aracaju)</t>
+        </is>
+      </c>
+      <c r="J375" t="n">
+        <v>15575</v>
+      </c>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -24037,9 +26083,19 @@
       <c r="G376" t="n">
         <v>2</v>
       </c>
-      <c r="H376" t="inlineStr"/>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Nascimento T. (Bra)</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Estádio Rei Pelé (Maceió)</t>
+        </is>
+      </c>
+      <c r="J376" t="n">
+        <v>19105</v>
+      </c>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -24095,9 +26151,19 @@
       <c r="G377" t="n">
         <v>2</v>
       </c>
-      <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>T. Scarascati (Bra)</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>São Januário (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J377" t="n">
+        <v>21880</v>
+      </c>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -24202,7 +26268,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-nRWjgPsO.png</t>
+          <t>https://static.flashscore.com/res/image/data/GMMaJNh5-OjIDDdYc.png</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -24221,9 +26287,19 @@
       <c r="G379" t="n">
         <v>1</v>
       </c>
-      <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>P. C. Zanovelli (Bra)</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Estádio Onésio Brasileiro Alvarenga (Goiânia)</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>11788</v>
+      </c>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -24279,9 +26355,19 @@
       <c r="G380" t="n">
         <v>1</v>
       </c>
-      <c r="H380" t="inlineStr"/>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>R. Lima (Bra)</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Estádio Brinco de Ouro (Campinas)</t>
+        </is>
+      </c>
+      <c r="J380" t="n">
+        <v>29130</v>
+      </c>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
